--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -1,26 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_4A969315AC3397C9CE17807A27FAFF45E12CB484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593F75EE-CCA0-495C-8653-615915B75E95}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
+    <t>Relevância</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
+  </si>
+  <si>
     <t>pqp achei que eu tinha perdido a capinha do airpods e até voltei no supermercado pra procurar essa merda</t>
+  </si>
+  <si>
+    <t>Relevante</t>
   </si>
   <si>
     <t>@taecgiri que airpods podre é esse que fica caindo. muda de estado</t>
@@ -1746,7 +1767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1810,6 +1831,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1856,7 +1885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,9 +1917,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,6 +1969,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2097,1516 +2162,2287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="168.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>129</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>131</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>133</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>137</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>139</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>193</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>195</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>197</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>199</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>201</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>203</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>205</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>207</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>209</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>211</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>213</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>217</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>219</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>221</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>223</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>229</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>231</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>235</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>237</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>239</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>251</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>253</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3615,1016 +4451,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A158" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_4A969315AC3397C9CE17807A27FAFF45E12CB484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593F75EE-CCA0-495C-8653-615915B75E95}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3A3F2-CD93-4CFC-AC6A-ADB5B171AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1763,12 +1768,15 @@
   <si>
     <t>@sugavzr me compra um airpods</t>
   </si>
+  <si>
+    <t xml:space="preserve">Relevância </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,10 +1828,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1843,7 +1860,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2165,22 +2182,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A272" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="168.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -2189,11 +2207,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -2203,3267 +2221,4022 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="B144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="B158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="B187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="B201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A205" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A207" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="B215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="B220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="B224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="B227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A229" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+      <c r="B229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+      <c r="B230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+      <c r="B233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A235" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A239" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+      <c r="B242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+      <c r="B243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+      <c r="B245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A246" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+      <c r="B246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+      <c r="B247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+      <c r="B252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+      <c r="B253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+      <c r="B254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="B258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A261" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A263" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="B264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="B267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="B269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="B270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A277" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A280" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="287" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A287" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="B287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A289" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="B289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="B291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A293" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B293" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A295" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A296" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A297" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A298" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A300" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="3" t="s">
         <v>303</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
         <v>504</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A732839-CAE8-40DC-8A00-269B3E6FEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC84B947-8CB3-48DF-8448-283D8519B5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Treinamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Relevância </t>
+    <t>Classificação</t>
   </si>
   <si>
     <t>pqp achei que eu tinha perdido a capinha do airpods e até voltei no supermercado pra procurar essa merda</t>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2187,7 +2187,7 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872818F-869F-4DBA-80E2-F44F3CF90CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="905">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3142,12 +3148,21 @@
 economizei 3.000,00 reais. 
 obrigado shopee!</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Classificacao_Teste</t>
+  </si>
+  <si>
+    <t>Classificacao_Treino</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3199,22 +3214,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3256,7 +3284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3288,9 +3316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3322,6 +3368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3497,3015 +3561,3024 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A601"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="86" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="105" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="121" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="123" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="125" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="126" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="129" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="131" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="132" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="137" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="138" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="139" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="140" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="145" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="147" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="149" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="150" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="222" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="223" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="226" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="227" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="233" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="234" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="235" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="236" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="244" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="248" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="249" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="255" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="256" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="258" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="261" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="263" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="267" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="270" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="271" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="276" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="277" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="278" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="280" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="282" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="283" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="291" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="293" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+    <row r="294" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="296" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="299" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+    <row r="301" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+    <row r="302" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+    <row r="306" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+    <row r="308" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+    <row r="309" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+    <row r="313" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+    <row r="314" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+    <row r="315" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+    <row r="320" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+    <row r="322" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+    <row r="327" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+    <row r="331" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+    <row r="334" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+    <row r="338" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+    <row r="339" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+    <row r="342" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+    <row r="344" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+    <row r="349" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+    <row r="350" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+    <row r="352" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+    <row r="354" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+    <row r="356" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+    <row r="359" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+    <row r="368" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+    <row r="369" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+    <row r="372" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+    <row r="373" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+    <row r="376" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+    <row r="378" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+    <row r="379" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
+    <row r="381" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+    <row r="385" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
+    <row r="394" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+    <row r="395" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+    <row r="396" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
+    <row r="398" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
+    <row r="400" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+    <row r="404" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
+    <row r="405" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
+    <row r="406" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
+    <row r="407" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
+    <row r="410" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
+    <row r="411" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
+    <row r="412" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+    <row r="413" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+    <row r="414" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+    <row r="415" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
+    <row r="416" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
+    <row r="420" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+    <row r="421" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
+    <row r="422" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
+    <row r="425" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
+    <row r="429" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
+    <row r="430" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+    <row r="433" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
+    <row r="434" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
+    <row r="435" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
+    <row r="437" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
+    <row r="442" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+    <row r="444" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
+    <row r="446" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
+    <row r="447" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
+    <row r="449" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
+    <row r="453" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A453" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
+    <row r="455" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A455" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
+    <row r="457" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A457" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
+    <row r="458" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A458" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
+    <row r="460" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A460" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
+    <row r="463" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A463" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
+    <row r="466" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A466" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
+    <row r="467" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A467" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
+    <row r="468" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A468" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
+    <row r="471" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A471" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
+    <row r="473" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A473" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
+    <row r="478" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A478" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
+    <row r="485" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A485" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
+    <row r="487" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A487" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
+    <row r="488" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A488" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
+    <row r="490" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A490" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
+    <row r="494" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A494" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
+    <row r="497" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A497" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
+    <row r="499" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A499" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
+    <row r="500" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A500" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
-      <c r="A502" t="s">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
-      <c r="A503" t="s">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
-      <c r="A504" t="s">
+    <row r="504" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A504" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="s">
+    <row r="505" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A505" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
-      <c r="A506" t="s">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
-      <c r="A507" t="s">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
-      <c r="A508" t="s">
+    <row r="508" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A508" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
-      <c r="A509" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
-      <c r="A510" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
-      <c r="A511" t="s">
+    <row r="511" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A511" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
-      <c r="A512" t="s">
+    <row r="512" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A512" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
-      <c r="A513" t="s">
+    <row r="513" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A513" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
-      <c r="A514" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
-      <c r="A515" t="s">
+    <row r="515" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A515" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
-      <c r="A516" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
-      <c r="A517" t="s">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
-      <c r="A518" t="s">
+    <row r="518" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A518" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
-      <c r="A519" t="s">
+    <row r="519" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A519" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
-      <c r="A520" t="s">
+    <row r="520" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A520" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
-      <c r="A522" t="s">
+    <row r="522" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A522" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
-      <c r="A523" t="s">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
-      <c r="A524" t="s">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
-      <c r="A525" t="s">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
-      <c r="A526" t="s">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
-      <c r="A527" t="s">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
-      <c r="A528" t="s">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
-      <c r="A529" t="s">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
-      <c r="A530" t="s">
+    <row r="530" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A530" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
-      <c r="A531" t="s">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
-      <c r="A532" t="s">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
-      <c r="A533" t="s">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
-      <c r="A534" t="s">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
-      <c r="A535" t="s">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
-      <c r="A536" t="s">
+    <row r="536" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A536" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
-      <c r="A537" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
-      <c r="A538" t="s">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
-      <c r="A539" t="s">
+    <row r="539" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A539" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
-      <c r="A542" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
-      <c r="A543" t="s">
+    <row r="543" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A543" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
-      <c r="A544" t="s">
+    <row r="544" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A544" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
-      <c r="A545" t="s">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
-      <c r="A546" t="s">
+    <row r="546" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A546" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
-      <c r="A547" t="s">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
-      <c r="A548" t="s">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
-      <c r="A549" t="s">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
-      <c r="A550" t="s">
+    <row r="550" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A550" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
-      <c r="A551" t="s">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
-      <c r="A552" t="s">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
-      <c r="A553" t="s">
+    <row r="553" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A553" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
-      <c r="A554" t="s">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
-      <c r="A555" t="s">
+    <row r="555" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A555" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1">
-      <c r="A556" t="s">
+    <row r="556" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A556" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
-      <c r="A557" t="s">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1">
-      <c r="A558" t="s">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
-      <c r="A559" t="s">
+    <row r="559" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A559" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
-      <c r="A560" t="s">
+    <row r="560" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A560" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
-      <c r="A561" t="s">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
-      <c r="A562" t="s">
+    <row r="562" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A562" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
-      <c r="A563" t="s">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
-      <c r="A564" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1">
-      <c r="A566" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
-      <c r="A567" t="s">
+    <row r="567" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A567" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1">
-      <c r="A568" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1">
-      <c r="A569" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
-      <c r="A570" t="s">
+    <row r="570" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A570" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1">
-      <c r="A571" t="s">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
-      <c r="A572" t="s">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
-      <c r="A573" t="s">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
-      <c r="A574" t="s">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
-      <c r="A575" t="s">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
-      <c r="A576" t="s">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
-      <c r="A577" t="s">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
-      <c r="A578" t="s">
+    <row r="578" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A578" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1">
-      <c r="A579" t="s">
+    <row r="579" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A579" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1">
-      <c r="A580" t="s">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="s">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
-      <c r="A582" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
-      <c r="A583" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
-      <c r="A584" t="s">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
-      <c r="A585" t="s">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
-      <c r="A586" t="s">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
-      <c r="A587" t="s">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
-      <c r="A588" t="s">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
-      <c r="A589" t="s">
+    <row r="589" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A589" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
-      <c r="A590" t="s">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
-      <c r="A591" t="s">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
-      <c r="A592" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
-      <c r="A593" t="s">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
-      <c r="A594" t="s">
+    <row r="594" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A594" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
-      <c r="A595" t="s">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
-      <c r="A596" t="s">
+    <row r="596" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A596" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
-      <c r="A597" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
-      <c r="A598" t="s">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
-      <c r="A599" t="s">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
-      <c r="A600" t="s">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
-      <c r="A601" t="s">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601" s="2" t="s">
         <v>600</v>
       </c>
     </row>
@@ -6515,1519 +6588,2432 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="77.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B191" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
         <v>901</v>
       </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B302" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872818F-869F-4DBA-80E2-F44F3CF90CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBF437-3322-4059-B32A-AB84F6575D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teste!$B$1:$B$302</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="904">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3147,9 +3150,6 @@
     <t>sorte que comprei airpods pro de r$19,90 no shopee, não curti! haha” 
 economizei 3.000,00 reais. 
 obrigado shopee!</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Classificacao_Teste</t>
@@ -3564,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6591,7 +6591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6606,7 +6606,7 @@
         <v>601</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>605</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>616</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="116" x14ac:dyDescent="0.35">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>618</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>619</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -6806,7 +6806,7 @@
         <v>626</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -6913,12 +6913,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>640</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -6934,7 +6934,7 @@
         <v>642</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -6942,7 +6942,7 @@
         <v>643</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -6958,7 +6958,7 @@
         <v>645</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -6990,7 +6990,7 @@
         <v>649</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -7161,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>671</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>672</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>681</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>682</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7414,7 +7414,7 @@
         <v>702</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="116" x14ac:dyDescent="0.35">
@@ -7526,7 +7526,7 @@
         <v>716</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>721</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>723</v>
       </c>
@@ -7734,10 +7734,10 @@
         <v>742</v>
       </c>
       <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>743</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>745</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -7766,7 +7766,7 @@
         <v>746</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -7822,7 +7822,7 @@
         <v>753</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>758</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>773</v>
       </c>
@@ -8125,8 +8125,8 @@
       <c r="A191" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B191" t="s">
-        <v>902</v>
+      <c r="B191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
@@ -8566,7 +8566,7 @@
         <v>846</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -8622,7 +8622,7 @@
         <v>853</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="87" x14ac:dyDescent="0.35">
@@ -8702,7 +8702,7 @@
         <v>863</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -8710,7 +8710,7 @@
         <v>864</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -8726,7 +8726,7 @@
         <v>866</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -8926,7 +8926,7 @@
         <v>891</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="58" x14ac:dyDescent="0.35">

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FEC3E9-F363-445C-B2AD-DCBA4C6F2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938E5928-1DA8-488E-8586-543DB4F5C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B564" sqref="B564"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3958,7 +3958,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="116.1">
@@ -4038,7 +4038,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="116.1">
@@ -4102,7 +4102,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="29.1">
@@ -4214,7 +4214,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="101.45">
@@ -4254,7 +4254,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="29.1">
@@ -4406,7 +4406,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="57.95">
@@ -4622,7 +4622,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="43.5">
@@ -4646,7 +4646,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="29.1">
@@ -4694,7 +4694,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="144.94999999999999">
@@ -4718,7 +4718,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="43.5">
@@ -4814,7 +4814,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="29.1">
@@ -5014,7 +5014,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="29.1">
@@ -5022,7 +5022,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBF437-3322-4059-B32A-AB84F6575D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F3FD2-3D08-48EF-ABE2-1321F9B55D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3586,1193 +3586,1895 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -6591,7 +7293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E16653-A3B9-40C5-9166-D02182533051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457F924-D02E-4201-A443-94E839F50721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teste!$B$1:$B$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$B$1:$B$601</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3162,7 +3163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3174,6 +3175,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3214,7 +3230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3224,6 +3240,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3562,10 +3580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3578,7 +3597,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>903</v>
       </c>
     </row>
@@ -3586,3003 +3605,4810 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="B139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B159" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B168" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B170" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B176" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B187" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B195" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B211" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B213" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B214" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B217" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B221" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B222" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B225" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B226" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B232" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B233" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B234" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B235" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B236" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B238" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B239" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B243" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B247" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B248" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B254" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B255" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B257" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B260" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B262" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B266" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B269" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B270" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B272" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B275" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B276" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B277" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B279" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B281" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B282" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B283" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B289" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B290" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B291" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B292" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B293" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B294" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B295" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B298" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B300" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B301" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B302" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B303" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B304" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B306" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B307" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B308" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B309" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B310" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B311" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B312" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B313" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B314" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B315" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B316" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B317" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B318" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B319" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B320" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B321" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B322" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B323" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B324" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B325" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B326" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B327" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B328" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B329" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B330" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B331" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B332" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B333" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B334" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B335" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B336" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B337" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B338" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B339" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B340" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B341" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B342" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B343" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B344" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B345" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B346" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B347" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B348" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B349" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B350" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B351" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B352" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B353" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B354" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B355" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B356" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B357" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B358" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B360" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B361" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B362" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B363" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B364" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B365" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B366" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B367" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B368" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B369" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B370" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B371" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B372" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B373" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B374" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B375" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B376" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B377" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B378" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B379" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B380" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B381" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B382" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B383" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B384" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B385" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B386" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B387" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B388" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B389" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B390" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B391" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B392" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="B393" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B394" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B395" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B396" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B397" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B398" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B399" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B400" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B401" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B402" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B403" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B404" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B405" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B406" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B407" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B408" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B409" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B410" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B411" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B412" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B413" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B414" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B415" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B416" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B417" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B418" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B419" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B420" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B421" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B423" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B424" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B425" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B426" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B427" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B428" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B429" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B430" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B431" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B432" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B433" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B434" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B435" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B436" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B438" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B439" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B440" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B441" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B442" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B443" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B444" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B445" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B446" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B447" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B448" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B450" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B451" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B452" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B453" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B454" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B455" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B456" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B457" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B458" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B459" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B460" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B461" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B462" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B463" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B464" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B465" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B466" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B467" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B468" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B469" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B470" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B471" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B472" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B473" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B474" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B475" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B476" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B477" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B478" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B479" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B480" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B481" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B482" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B483" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B484" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B485" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B486" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B487" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B488" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B489" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B490" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B491" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B492" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B494" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B495" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B496" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B497" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B498" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B499" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B500" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B501" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B504" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B505" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B506" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B507" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B508" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B509" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B510" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B511" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B512" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B513" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B514" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B515" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B516" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B517" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B518" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B519" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B520" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B521" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B522" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B523" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B524" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B525" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B526" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B527" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B528" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B529" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B530" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B531" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B532" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B533" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B534" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B535" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B536" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B537" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B538" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B539" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B540" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B541" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B542" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B543" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B544" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B545" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B546" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B547" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B548" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+      <c r="B549" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B550" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B551" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B552" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B553" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B554" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B555" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B556" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B557" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B558" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+      <c r="B559" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B560" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B561" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B562" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B563" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B564" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B565" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B566" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B567" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B568" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B569" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B570" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B571" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B572" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B573" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B574" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B575" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B576" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B577" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B578" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B579" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B580" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B581" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B582" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B583" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B584" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B585" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B586" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B587" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B588" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B589" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B590" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B591" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B592" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B593" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B594" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B595" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B596" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B597" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B598" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B599" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B600" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>600</v>
       </c>
+      <c r="B601" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B601" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Airpods.xlsx
+++ b/Airpods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liviabn\Documents\Cdados- Projetos\PROJETO1_Cdados\P1Cdados2021_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457F924-D02E-4201-A443-94E839F50721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B5DF0A-9DF2-4A4F-AA2D-3F3771148D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,11 +3580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3609,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4257,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -5758,10 +5757,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -5785,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -6174,10 +6173,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="87" x14ac:dyDescent="0.35">
@@ -6441,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -6889,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="116" x14ac:dyDescent="0.35">
@@ -6913,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
@@ -7038,10 +7037,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>453</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>455</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>458</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>461</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>462</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>464</v>
       </c>
@@ -7342,10 +7341,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>469</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>470</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>473</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>475</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>480</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>482</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>483</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>485</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>486</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>487</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>490</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>491</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>492</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>493</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>501</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>502</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>510</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>513</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>515</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>516</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>520</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>522</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>527</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>528</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>529</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>532</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>537</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>538</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>541</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>546</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>548</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>555</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>557</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>561</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>565</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>569</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>576</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>580</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>583</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>584</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>592</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>594</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>595</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>597</v>
       </c>
@@ -8402,13 +8401,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B601" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
